--- a/experiments/241009/report_Hy_mix3.xlsx
+++ b/experiments/241009/report_Hy_mix3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">Mass</t>
   </si>
@@ -74,160 +74,214 @@
     <t xml:space="preserve">C5H12O|C3H8N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">Neopentyl alcohol|3-pentanol|3-Methyl-2-butanol|1-Pentanol|(S)-2-Methyl-1-butanol|2-Pentanol|Isopentanol|2-Methyl-2-butanol|Ethylurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0255527|HMDB0303831|HMDB0033777|HMDB0013036|HMDB0031527|HMDB0031599|HMDB0006007|HMDB0033772|HMDB0252088</t>
+    <t xml:space="preserve">3-pentanol|(S)-2-Methyl-1-butanol|2-Pentanol|Neopentyl alcohol|Isopentanol|1-Pentanol|3-Methyl-2-butanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0303831|HMDB0031527|HMDB0031599|HMDB0255527|HMDB0006007|HMDB0013036|HMDB0033777|HMDB0033772|HMDB0252088</t>
   </si>
   <si>
     <t xml:space="preserve">C6H14O</t>
   </si>
   <si>
-    <t xml:space="preserve">3-Hexanol|Isohexanol|3-methyl-2-pentanol|(±)-3-Methyl-1-pentanol|2-Hexanol|2-Methylpentan-3-ol|4-Methyl-2-pentanol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol|2-Methylpentan-2-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031493|HMDB0059889|HMDB0062726|HMDB0033676|HMDB0061886|HMDB0302390|HMDB0246515|HMDB0245993|HMDB0302446|HMDB0302442</t>
+    <t xml:space="preserve">3-methyl-2-pentanol|3-Hexanol|2-Hexanol|(±)-3-Methyl-1-pentanol|4-Methyl-2-pentanol|Isohexanol|1-Hexanol|2-Methylpentan-3-ol|2-Methylpentan-2-ol|3,3-Dimethyl-2-butanol|3-Methylpentan-3-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0062726|HMDB0031493|HMDB0061886|HMDB0033676|HMDB0246515|HMDB0059889|HMDB0012971|HMDB0302390|HMDB0302442|HMDB0245993|HMDB0302446</t>
   </si>
   <si>
     <t xml:space="preserve">C7H16O</t>
   </si>
   <si>
-    <t xml:space="preserve">xi-3-Heptanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031481</t>
+    <t xml:space="preserve">xi-3-Heptanol|(±)-2-Heptanol|4-methyl-1-hexanol|1-Heptanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031481|HMDB0033908|HMDB0303837|HMDB0031479</t>
   </si>
   <si>
     <t xml:space="preserve">C8H18O|C6H14N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2,3,4-Trimethyl-3-pentanol|2,4,4-Trimethyl-2-pentanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(S)-3-Ethyl-4-methylpentanol|N-(2-Hydroxyethyl)piperazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0036166|HMDB0245471|HMDB0094707|HMDB0013818|HMDB0059859|HMDB0254989</t>
+    <t xml:space="preserve">2,4,4-Trimethyl-2-pentanol|2,3,4-Trimethyl-3-pentanol|Octanol|(S)-3-Octanol|(±)-2-Octanol|4-Methyl-2-heptanol|xi-2-Ethyl-1-hexanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(2xi,4xi)-2,4-Dimethyl-1-hexanol|(S)-3-Ethyl-4-methylpentanol|N-(2-Hydroxyethyl)piperazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0245471|HMDB0036166|HMDB0001183|HMDB0030070|HMDB0034261|HMDB0031589|HMDB0031231|HMDB0094707|HMDB0013818|HMDB0037791|HMDB0059859|HMDB0254989</t>
   </si>
   <si>
     <t xml:space="preserve">C9H18O</t>
   </si>
   <si>
-    <t xml:space="preserve">Dihydroisophorol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0029557</t>
+    <t xml:space="preserve">Dihydroisophorol|(Z)-3-Nonen-1-ol|(E)-3-Nonen-1-ol|1-Nonen-3-ol|(Z)-6-Nonen-1-ol|(E)-6-Nonenol|2-Nonen-1-ol|(Z)-2-Nonen-1-ol|(±)-2,6-Dimethyl-6-hepten-1-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0029557|HMDB0030959|HMDB0041601|HMDB0034152|HMDB0040581|HMDB0059887|HMDB0041498|HMDB0041499|HMDB0037304</t>
   </si>
   <si>
     <t xml:space="preserve">C6H9NOS|C6H9NO3</t>
   </si>
   <si>
-    <t xml:space="preserve">5-(2-Hydroxyethyl)-4-methylthiazole|6-Oxopiperidine-2-carboxylic acid|5-ethyl-5-methyl-2,4-oxazolidinedione|5-(1-Hydroxyethyl)-4-methylthiazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0032985|HMDB0061705|HMDB0061082|HMDB0246712</t>
+    <t xml:space="preserve">5-(2-Hydroxyethyl)-4-methylthiazole|5-ethyl-5-methyl-2,4-oxazolidinedione|6-Oxopiperidine-2-carboxylic acid|5-(1-Hydroxyethyl)-4-methylthiazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0032985|HMDB0061082|HMDB0061705|HMDB0246712</t>
   </si>
   <si>
     <t xml:space="preserve">C8H18O2</t>
   </si>
   <si>
-    <t xml:space="preserve">4,5-Octanediol|2-(Hexyloxy)ethanol|(2S)-2-Butoxybutan-1-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0246612|HMDB0244945|HMDB0256692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2S)-2-Butoxybutan-1-ol|2-(Hexyloxy)ethanol|4,5-Octanediol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0256692|HMDB0244945|HMDB0246612</t>
+    <t xml:space="preserve">(R)-1,3-Octanediol|4,5-Octanediol|Octane-1,1-diol|(2S)-2-Butoxybutan-1-ol|2-(Hexyloxy)ethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0029359|HMDB0246612|HMDB0255905|HMDB0256692|HMDB0244945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-(Hexyloxy)ethanol|(2S)-2-Butoxybutan-1-ol|Octane-1,1-diol|4,5-Octanediol|(R)-1,3-Octanediol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0244945|HMDB0256692|HMDB0255905|HMDB0246612|HMDB0029359</t>
   </si>
   <si>
     <t xml:space="preserve">C6H14O4|C9H10O2|C10H14O|C8H10N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIETHYLENE GLYCOL|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|4-Coumaryl alcohol|3'-carboxy-alpha-chromanol|4-Phenyl-2-butanol|Chroman-2-ol|2-Methyl-1-phenyl-2-propanol|1-Acetyl-2-phenylhydrazine|2-(4-Methylphenyl)-2-propanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0259193|HMDB0246651|HMDB0003654|HMDB0062349|HMDB0031613|HMDB0250203|HMDB0031570|HMDB0243811|HMDB0029652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10H14O|C9H10O2|C8H10N2O|C6H14O4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Phenyl-2-butanol|Chroman-2-ol|3'-carboxy-alpha-chromanol|2-Methyl-1-phenyl-2-propanol|1-Acetyl-2-phenylhydrazine|2-(4-Methylphenyl)-2-propanol|4-Coumaryl alcohol|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|TRIETHYLENE GLYCOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031613|HMDB0250203|HMDB0062349|HMDB0031570|HMDB0243811|HMDB0029652|HMDB0003654|HMDB0246651|HMDB0259193</t>
+    <t xml:space="preserve">TRIETHYLENE GLYCOL|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|4-Coumaryl alcohol|4,6-Decadiyn-1-ol|Cuminyl alcohol|2-(4-Methylphenyl)-1-propanol|3'-carboxy-alpha-chromanol|Chroman-2-ol|1-Acetyl-2-phenylhydrazine|4-Phenyl-2-butanol|2-(4-Methylphenyl)-2-propanol|2-Methyl-1-phenyl-2-propanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0259193|HMDB0246651|HMDB0003654|HMDB0038913|HMDB0031817|HMDB0034846|HMDB0062349|HMDB0250203|HMDB0243811|HMDB0031613|HMDB0029652|HMDB0031570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9H10O2|C10H14O|C8H10N2O|C6H14O4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chroman-2-ol|3'-carboxy-alpha-chromanol|2-(4-Methylphenyl)-1-propanol|1-Acetyl-2-phenylhydrazine|Cuminyl alcohol|4-Phenyl-2-butanol|4,6-Decadiyn-1-ol|2-(4-Methylphenyl)-2-propanol|2-Methyl-1-phenyl-2-propanol|4-Coumaryl alcohol|4-Hydroxy-3-methyl-2-(2-propynyl)-2-cyclopentene-1-one|TRIETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0250203|HMDB0062349|HMDB0034846|HMDB0243811|HMDB0031817|HMDB0031613|HMDB0038913|HMDB0029652|HMDB0031570|HMDB0003654|HMDB0246651|HMDB0259193</t>
   </si>
   <si>
     <t xml:space="preserve">C10H18O</t>
   </si>
   <si>
-    <t xml:space="preserve">cis-p-2-Menthen-1-ol|3,3,6-trimethyl-1,5-heptadien-4-ol|Ocimenol|(Z)-Ocimenol|Myrcenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0302875|HMDB0303855|HMDB0059881|HMDB0302515|HMDB0036107</t>
+    <t xml:space="preserve">(R)-Lavandulol|(4Z,7Z)-4,7-Decadien-1-ol|cis-Isogeraniol|(2E,4E)-2,4-Decadien-1-ol|Campholenic alcohol|Geraniol|beta-Geraniol|3,7-Dimethylocta-2,6-dien-1-ol|p-Menth-4(8)-en-3-ol|Pulegol|p-Menth-8-en-3-ol|(-)-Isopulegol|(+)-Neoisopulegol|3,3,6-trimethyl-1,5-heptadien-4-ol|Piperitol|trans-(-)-p-Menth-1-en-3-ol|p-Menth-1-en-5-ol|cis-p-Menth-1-en-3-ol|(-)-Dihydrocarveol|1-Dihydrocarveol|Dihydroisocarveol|Neodihydrocarveol|Neoisodihydrocarveol|(+)-Dihydrocarveol|p-Menth-1-en-9-ol|cis-Isopulegone|cis-Myrtenol|Myrcenol|3,7-Dimethyl-1,6-octadien-3-ol|(R)-3,7-Dimethyl-1,6-octadien-3-ol|cis-p-2-Menthen-1-ol|Ocimenol|(Z)-Ocimenol|p-Mentha-3-en-7-ol|Fenchol|alpha-fenchyl alcoholalpha-1,3,3-trimethyl-norbornan-2-ol|xi-p-Menth-3-en-1-ol|delta-Terpineol|alpha-Terpineol|gamma-Terpineol|m-Menth-1-en-8-ol|1-p-Menthene-6-ol|Camphene-hydrate|(-)-Borneol|(+)-Isoborneol|(-)-Isoborneol|(2S,4R)-1,7,7-Trimethylbicyclo[2.2.1]heptan-2-ol|(S)-p-Menth-1-en-4-ol|p-Menth-1-en-4-ol|(-)-trans-Isomenth-5-en-2-ol|(1R*,3R*,6S*)-3-Caranol|(1R*,2S*,3S*,6S*)-2-Caranol|(R)-m-Menth-1(6)-en-8-ol|(-)-trans-m-Menth-8-en-1-ol|beta-Terpineol|trans-beta-Terpineol|cis-p-Menth-2-en-1-ol|p-Menth-cis-2-en-1-ol|trans-p-Menth-2-en-1-ol|Thujyl alcohol|(1R,4S,5R)-4-Thujanol|(+)-trans-Sabinene hydrate|cis-Sabinene hydrate|(+)-trans-Sabinol|cis-Thujanol|Neothujol|4-Thujanol|trans-4-thujanol|Terpinenol|(-)-Pinocampheol|cis-p-Menth-2-enol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0036041|HMDB0041034|HMDB0303876|HMDB0036196|HMDB0036068|HMDB0005812|HMDB0035155|HMDB0247145|HMDB0301948|HMDB0302742|HMDB0036077|HMDB0036078|HMDB0303828|HMDB0303855|HMDB0035838|HMDB0035861|HMDB0037016|HMDB0302767|HMDB0035825|HMDB0302231|HMDB0302262|HMDB0302494|HMDB0302495|HMDB0303825|HMDB0037007|HMDB0037006|HMDB0302929|HMDB0036107|HMDB0036100|HMDB0036101|HMDB0302875|HMDB0059881|HMDB0302515|HMDB0302600|HMDB0034932|HMDB0303866|HMDB0038025|HMDB0036991|HMDB0004043|HMDB0036993|HMDB0037048|HMDB0302488|HMDB0303102|HMDB0034976|HMDB0035815|HMDB0035819|HMDB0249350|HMDB0035823|HMDB0035833|HMDB0303068|HMDB0035954|HMDB0035955|HMDB0037049|HMDB0037047|HMDB0036996|HMDB0037215|HMDB0302611|HMDB0302613|HMDB0302615|HMDB0032530|HMDB0036112|HMDB0301816|HMDB0301818|HMDB0301819|HMDB0302819|HMDB0302932|HMDB0303503|HMDB0303860|HMDB0302814|HMDB0036126|HMDB0302811</t>
   </si>
   <si>
     <t xml:space="preserve">C10H20O|C8H16N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">3-Methyl-3-propan-2-ylcyclohexan-1-ol|3,7-dimethyl-1-octen-3-ol|N-(3-(Dimethylamino)propyl)acrylamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0258008|HMDB0303850|HMDB0246231</t>
+    <t xml:space="preserve">3,7-dimethyl-1-octen-3-ol|9-Decenol|1-Decen-3-ol|(E)-3-decen-1-ol|cis-4-Decenol|2-DECENOL|Dec-2-en-1-al|Menthol|(+)-Neomenthol|(-)-Neoisomenthol|p-Menthan-3-ol|(+)-Neoisomenthol|(¬±)-Isomenthol|D-Citronellol|L-Citronellol|alpha-Citronellol|3-Methyl-3-propan-2-ylcyclohexan-1-ol|Menthanol|(±)-Carvomenthol|p-Menthan-1-ol|p-Menthan-4-ol|N-(3-(Dimethylamino)propyl)acrylamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0303850|HMDB0059861|HMDB0039854|HMDB0013810|HMDB0032206|HMDB0032532|HMDB0303153|HMDB0003352|HMDB0035763|HMDB0035764|HMDB0035765|HMDB0041628|HMDB0303820|HMDB0035093|HMDB0035094|HMDB0037171|HMDB0258008|HMDB0034717|HMDB0037223|HMDB0037020|HMDB0035726|HMDB0246231</t>
   </si>
   <si>
     <t xml:space="preserve">C11H24O</t>
   </si>
   <si>
-    <t xml:space="preserve">2,4-Dimethyl-4-nonanol|6,10-dihydromyrcenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0032239|HMDB0303854</t>
+    <t xml:space="preserve">1-Undecanol|2-Undecanol|2,4-Dimethyl-4-nonanol|6,10-dihydromyrcenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0013113|HMDB0030942|HMDB0032239|HMDB0303854</t>
   </si>
   <si>
     <t xml:space="preserve">C10H14O3|C6H14O6|C13H10O</t>
   </si>
   <si>
-    <t xml:space="preserve">(S)-3-(2-Methylphenoxy)propane-1,2-diol|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Dihydroconiferyl alcohol|Verimol J|3-Hydroxymethyl xylitol|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol|Peperinic acid|9-Hydroxyfluorene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0247880|HMDB0032607|HMDB0303315|HMDB0303757|HMDB0036522|HMDB0245900|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766|HMDB0038181|HMDB0059803</t>
+    <t xml:space="preserve">(S)-3-(2-Methylphenoxy)propane-1,2-diol|Dihydroconiferyl alcohol|Verimol J|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Peperinic acid|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol|3-Hydroxymethyl xylitol|9-Hydroxyfluorene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0247880|HMDB0303757|HMDB0036522|HMDB0032607|HMDB0303315|HMDB0038181|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766|HMDB0245900|HMDB0059803</t>
   </si>
   <si>
     <t xml:space="preserve">C13H10O|C10H14O3|C6H14O6</t>
   </si>
   <si>
-    <t xml:space="preserve">9-Hydroxyfluorene|Peperinic acid|Verimol J|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Dihydroconiferyl alcohol|(S)-3-(2-Methylphenoxy)propane-1,2-diol|3-Hydroxymethyl xylitol|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0059803|HMDB0038181|HMDB0036522|HMDB0032607|HMDB0303315|HMDB0303757|HMDB0247880|HMDB0245900|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766</t>
+    <t xml:space="preserve">9-Hydroxyfluorene|Peperinic acid|(±)-threo-Anethole glycol|(¬±)-erythro-Anethole glycol|Verimol J|Dihydroconiferyl alcohol|(S)-3-(2-Methylphenoxy)propane-1,2-diol|Galactitol|Sorbitol|Mannitol|L-Iditol|D-Iditol|3-Hydroxymethyl xylitol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0059803|HMDB0038181|HMDB0032607|HMDB0303315|HMDB0036522|HMDB0303757|HMDB0247880|HMDB0000107|HMDB0000247|HMDB0000765|HMDB0011632|HMDB0250766|HMDB0245900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12H26O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodecanol|2-Butyl-1-octanol|2,2-Dimethyldecan-1-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0011626|HMDB0041288|HMDB0302690</t>
   </si>
   <si>
     <t xml:space="preserve">C11H17NO2|C12H21NO</t>
   </si>
   <si>
-    <t xml:space="preserve">[3-(2-Aminopropyl)-6-methylidenecyclohexa-1,3-dien-1-yl]methanediol|2-hydroxymexiletine|1-Amino-3-hydroxymethyl-5-methyl-adamantane|3-Amino-1-hydroxy-5,7-dimethyl-adamantane|3-(1-Aminoethyl)adamantan-1-ol|p-Hydroxyrimantadine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0257571|HMDB0060953|HMDB0060703|HMDB0060738|HMDB0245767|HMDB0244425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10H18O5|C9H18N2O4|C13H14O3|C12H14N2O2|C8H14N2O5|C14H18O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Hydroxydecanedioic acid|5-Hydroxysebacate|3-Hydroxysebacic acid|Threoninyl-Valine|Leucyl-Serine|Serylisoleucine|Isoleucyl-Serine|(S,E)-2-(5-Hydroxy-8,9-dihydro-5H-benzo[7]annulen-6(7H)-ylidene)acetic acid|Valylthreonine|Threonylvaline|(R)-Bitalin A|Serylleucine|Ser-Leu|Propranolol glycol|3H-Pyrazol-3-one, 1,2-dihydro-4-(hydroxymethyl)-1,5-dimethyl-2-phenyl-|Pantothenamide|Serylhydroxyproline|(R)-Pterosin B|Hydroxyprolyl-Serine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0000424|HMDB0029189|HMDB0000350|HMDB0304791|HMDB0028938|HMDB0029042|HMDB0028916|HMDB0250015|HMDB0029137|HMDB0029074|HMDB0040358|HMDB0029043|HMDB0258242|HMDB0256835|HMDB0244281|HMDB0041313|HMDB0029040|HMDB0030759|HMDB0028872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8H14O7|C7H14N2O6|C10H10N2O4|C7H14N2O4S|C11H14N2O3|C12H14O4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethyl glucuronide|Glucosamine, N-carbamoyl-(6CI)|Dioxidine|beta-D-Glucopyranosylurea|Cysteinyl-Threonine|Threonylcysteine|Glycyl-Phenylalanine|Phenylalanyl-Glycine|Dihydrodeoxy-8-epiaustdiol|Carboxyethyl-hydroxychroman|2,3-Dihydro-3-hydroxy-6-methoxy-2,2-dimethyl-4H-1-benzopyran-4-one|alpha-Carboxyethyl hydroxychroman|Carboxy-ethyl-hydroxychroman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0010325|HMDB0248482|HMDB0251436|HMDB0249119|HMDB0028785|HMDB0029058|HMDB0028848|HMDB0304788|HMDB0031668|HMDB0249658|HMDB0041379|HMDB0257876|HMDB0249650</t>
+    <t xml:space="preserve">[3-(2-Aminopropyl)-6-methylidenecyclohexa-1,3-dien-1-yl]methanediol|2-hydroxymexiletine|1-Amino-3-hydroxymethyl-5-methyl-adamantane|CC12C(CC(CC1)C2(C)C)=CC(O)N|3-Amino-1-hydroxy-5,7-dimethyl-adamantane|3-(1-Aminoethyl)adamantan-1-ol|p-Hydroxyrimantadine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0257571|HMDB0060953|HMDB0060703|HMDB0244248|HMDB0060738|HMDB0245767|HMDB0244425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13H28O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tridecanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0013316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14H30O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetradecanol|Tetradecan-2-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0011638|HMDB0062733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H18O5|C13H14O3|C9H18N2O4|C12H14N2O2|C14H18O2|C8H14N2O5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Hydroxydecanedioic acid|3-Hydroxysebacic acid|5-Hydroxysebacate|Propranolol glycol|(R)-Bitalin A|(S,E)-2-(5-Hydroxy-8,9-dihydro-5H-benzo[7]annulen-6(7H)-ylidene)acetic acid|Leucyl-Serine|Threoninyl-Valine|3H-Pyrazol-3-one, 1,2-dihydro-4-(hydroxymethyl)-1,5-dimethyl-2-phenyl-|Threonylvaline|Valylthreonine|Isoleucyl-Serine|Serylisoleucine|Serylleucine|Ser-Leu|(R)-Pterosin B|Pantothenamide|Serylhydroxyproline|Hydroxyprolyl-Serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0000424|HMDB0000350|HMDB0029189|HMDB0256835|HMDB0040358|HMDB0250015|HMDB0028938|HMDB0304791|HMDB0244281|HMDB0029074|HMDB0029137|HMDB0028916|HMDB0029042|HMDB0029043|HMDB0258242|HMDB0030759|HMDB0041313|HMDB0029040|HMDB0028872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10H10N2O4|C8H14O7|C7H14N2O4S|C11H14N2O3|C7H14N2O6|C12H14O4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dioxidine|Ethyl glucuronide|Threonylcysteine|Cysteinyl-Threonine|Glycyl-Phenylalanine|Glucosamine, N-carbamoyl-(6CI)|beta-D-Glucopyranosylurea|Phenylalanyl-Glycine|Carboxyethyl-hydroxychroman|Carboxy-ethyl-hydroxychroman|alpha-Carboxyethyl hydroxychroman|Dihydrodeoxy-8-epiaustdiol|2,3-Dihydro-3-hydroxy-6-methoxy-2,2-dimethyl-4H-1-benzopyran-4-one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0251436|HMDB0010325|HMDB0029058|HMDB0028785|HMDB0028848|HMDB0248482|HMDB0249119|HMDB0304788|HMDB0249658|HMDB0249650|HMDB0257876|HMDB0031668|HMDB0041379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15H32O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentadecanol|3,7,11-trimethyldodecan-1-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0013299|HMDB0062728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16H34O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Hexadecanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0003424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19H38O4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG(16:0/0:0/0:0)|3-Palmitoyl-sn-glycerol|MG(0:0/16:0/0:0)|MG(i-16:0/0:0/0:0)|MG(0:0/i-16:0/0:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0011564|HMDB0245964|HMDB0011533|HMDB0072844|HMDB0072873</t>
   </si>
 </sst>
 </file>
@@ -1363,15 +1417,21 @@
       <c r="B18" t="n">
         <v>648.35599999998</v>
       </c>
-      <c r="C18"/>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18"/>
-      <c r="G18"/>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" t="n">
         <v>152765.021822144</v>
       </c>
@@ -1405,7 +1465,7 @@
         <v>230.45800000002</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1414,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H19" t="n">
         <v>11062.5032182323</v>
@@ -1451,15 +1511,21 @@
       <c r="B20" t="n">
         <v>664.90000000002</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20"/>
-      <c r="G20"/>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
       <c r="H20" t="n">
         <v>367091.717370369</v>
       </c>
@@ -1492,15 +1558,21 @@
       <c r="B21" t="n">
         <v>680.532</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21"/>
-      <c r="G21"/>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
       <c r="H21" t="n">
         <v>149588.345208749</v>
       </c>
@@ -1534,7 +1606,7 @@
         <v>418.91899999998</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1543,10 +1615,10 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H22" t="n">
         <v>8095.49600353413</v>
@@ -1581,7 +1653,7 @@
         <v>324.65599999998</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -1590,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H23" t="n">
         <v>12972.158497621</v>
@@ -1627,15 +1699,21 @@
       <c r="B24" t="n">
         <v>695.38300000002</v>
       </c>
-      <c r="C24"/>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24"/>
-      <c r="G24"/>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
       <c r="H24" t="n">
         <v>290296.965974347</v>
       </c>
@@ -1668,15 +1746,21 @@
       <c r="B25" t="n">
         <v>708.79600000002</v>
       </c>
-      <c r="C25"/>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
       <c r="H25" t="n">
         <v>279248.523046259</v>
       </c>
@@ -1709,15 +1793,21 @@
       <c r="B26" t="n">
         <v>652.16500000002</v>
       </c>
-      <c r="C26"/>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26"/>
-      <c r="G26"/>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
       <c r="H26" t="n">
         <v>4241.27623195533</v>
       </c>
